--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB1525-03C5-486C-8B47-35F4A729CFB7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -64,12 +64,27 @@
   </si>
   <si>
     <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>HotLine</t>
+  </si>
+  <si>
+    <t>IntroTest</t>
+  </si>
+  <si>
+    <t>Proactive Balance</t>
+  </si>
+  <si>
+    <t>Wave File</t>
+  </si>
+  <si>
+    <t>no-thats-not-gonna-do-it.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,30 +403,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -430,10 +446,16 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -449,6 +471,12 @@
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -529,7 +557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Modify Reason</t>
   </si>
   <si>
-    <t>delete</t>
-  </si>
-  <si>
     <t>Functionality</t>
   </si>
   <si>
@@ -51,18 +48,12 @@
     <t>Enable</t>
   </si>
   <si>
-    <t>TestOne</t>
-  </si>
-  <si>
     <t>Start Date Time</t>
   </si>
   <si>
     <t>random.str</t>
   </si>
   <si>
-    <t>Intro Message Modified</t>
-  </si>
-  <si>
     <t>Delete Reason</t>
   </si>
   <si>
@@ -72,13 +63,31 @@
     <t>IntroTest</t>
   </si>
   <si>
-    <t>Proactive Balance</t>
-  </si>
-  <si>
     <t>Wave File</t>
   </si>
   <si>
     <t>no-thats-not-gonna-do-it.wav</t>
+  </si>
+  <si>
+    <t>IVR_B_MainMenu</t>
+  </si>
+  <si>
+    <t>RejectTest</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Updated Interrupt</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Deleted</t>
   </si>
 </sst>
 </file>
@@ -121,12 +130,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -411,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,54 +434,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -487,68 +518,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,35 +613,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:M20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H2"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,11 +534,11 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -601,8 +601,9 @@
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
     </row>
   </sheetData>
@@ -615,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:M18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -408,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,9 +625,10 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -649,8 +650,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -671,6 +675,9 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M18"/>
+  <oleSize ref="B1:L18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -88,6 +89,25 @@
   </si>
   <si>
     <t>Deleted</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT [FUNCTIONALITY] as Functionality
+      ,[HOTLINE] as Hotline
+   ,CONCAT((substring(START_DATE,4,2)+'/'
+   +substring(START_DATE,1,2)+'/'
+   +substring(START_DATE,7,4)),
+   ' ',START_TIME) as "Start Date Time"
+   ,CONCAT((substring(END_DATE,4,2)+'/'
+   +substring(END_DATE,1,2)+'/'
+   +substring(ENd_DATE,7,4)),' ',END_TIME) as "End Date Time"
+   ,[LANGUAGE] as Language
+   ,[WAVFILE] as "Wave File"
+   ,[LAST_CHANGED_BY] as "Last Changed By"
+      ,[LAST_CHANGED_ON] as "Last Changed On"
+  FROM [IVR_Introductory_Message]</t>
   </si>
 </sst>
 </file>
@@ -130,12 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -616,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -684,4 +707,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:L18"/>
+  <oleSize ref="A1:O2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O2"/>
+  <oleSize ref="B1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:O24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -543,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,10 +636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,9 +648,10 @@
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -676,8 +676,11 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -701,6 +704,9 @@
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="B1:N24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -542,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C936016D-3CB2-480A-812C-4127EF1DA0F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -108,11 +110,29 @@
       ,[LAST_CHANGED_ON] as "Last Changed On"
   FROM [IVR_Introductory_Message]</t>
   </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>Mess</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AutoTest</t>
+  </si>
+  <si>
+    <t>ahhssx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,24 +457,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="5" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -480,7 +500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -506,7 +526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -529,6 +549,32 @@
         <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -539,28 +585,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -592,7 +638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -625,7 +671,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J3" s="2"/>
     </row>
   </sheetData>
@@ -635,23 +681,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -680,7 +726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -716,24 +762,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>

--- a/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
+++ b/ocms/src/test/resources/TestData/IntroMessageAnnouncementData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75D05A8-3F14-4483-863A-A3763571ABBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -128,11 +128,14 @@
   <si>
     <t>BranchName.wav</t>
   </si>
+  <si>
+    <t>IVR_B_MainMenu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,31 +453,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="5" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -500,9 +503,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -526,9 +529,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -552,9 +555,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -585,28 +588,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -638,9 +641,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -671,7 +674,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J3" s="2"/>
     </row>
   </sheetData>
@@ -681,23 +684,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -726,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -762,19 +765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -800,27 +803,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>27</v>
       </c>
@@ -831,24 +834,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
